--- a/tests/advanced/randomized_tests/b11.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b11.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>9.962962940335274E-05</v>
+        <v>0.0001522251404821873</v>
       </c>
       <c r="E2">
-        <v>0.02177666500210762</v>
+        <v>0.03237668331712484</v>
       </c>
       <c r="F2">
         <v>49</v>
       </c>
       <c r="G2">
-        <v>0.001902143005281687</v>
+        <v>0.002347433473914862</v>
       </c>
       <c r="H2">
-        <v>0.003244779538363218</v>
+        <v>0.004973569419234991</v>
       </c>
       <c r="I2">
-        <v>0.005407362710684538</v>
+        <v>0.01068706717342138</v>
       </c>
       <c r="J2">
-        <v>0.008893360383808613</v>
+        <v>0.01155747706070542</v>
       </c>
       <c r="K2">
-        <v>0.0006553675048053265</v>
+        <v>0.000841798260807991</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>0.001775330398231745</v>
+        <v>0.003154166042804718</v>
       </c>
       <c r="E3">
-        <v>0.02631490724161267</v>
+        <v>0.05864369217306376</v>
       </c>
       <c r="F3">
         <v>49</v>
       </c>
       <c r="G3">
-        <v>0.001913823187351227</v>
+        <v>0.003410936333239079</v>
       </c>
       <c r="H3">
-        <v>0.004937164019793272</v>
+        <v>0.009973959065973759</v>
       </c>
       <c r="I3">
-        <v>0.006027778144925833</v>
+        <v>0.01777164312079549</v>
       </c>
       <c r="J3">
-        <v>0.01116571296006441</v>
+        <v>0.02292770752683282</v>
       </c>
       <c r="K3">
-        <v>0.0006469446234405041</v>
+        <v>0.001790117006748915</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0.00206108670681715</v>
+        <v>0.003072123508900404</v>
       </c>
       <c r="E4">
-        <v>0.02673909394070506</v>
+        <v>0.05521911988034844</v>
       </c>
       <c r="F4">
         <v>49</v>
       </c>
       <c r="G4">
-        <v>0.001903267577290535</v>
+        <v>0.003441018518060446</v>
       </c>
       <c r="H4">
-        <v>0.005253948736935854</v>
+        <v>0.009453070349991322</v>
       </c>
       <c r="I4">
-        <v>0.00601936224848032</v>
+        <v>0.0160662429407239</v>
       </c>
       <c r="J4">
-        <v>0.01124017080292106</v>
+        <v>0.02209822973236442</v>
       </c>
       <c r="K4">
-        <v>0.000638382975012064</v>
+        <v>0.001156759448349476</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>0.0001418008469045162</v>
+        <v>0.0001967228017747402</v>
       </c>
       <c r="E5">
-        <v>0.021594671998173</v>
+        <v>0.03038666723296046</v>
       </c>
       <c r="F5">
         <v>49</v>
       </c>
       <c r="G5">
-        <v>0.001743553206324577</v>
+        <v>0.002125932835042477</v>
       </c>
       <c r="H5">
-        <v>0.00328473374247551</v>
+        <v>0.004262574482709169</v>
       </c>
       <c r="I5">
-        <v>0.005831165239214897</v>
+        <v>0.009995473548769951</v>
       </c>
       <c r="J5">
-        <v>0.008495476096868515</v>
+        <v>0.01140075176954269</v>
       </c>
       <c r="K5">
-        <v>0.0006399853155016899</v>
+        <v>0.0007675196975469589</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>101</v>
       </c>
       <c r="D6">
-        <v>0.003027370199561119</v>
+        <v>0.003217901568859816</v>
       </c>
       <c r="E6">
-        <v>0.07508703880012035</v>
+        <v>0.1279248059727252</v>
       </c>
       <c r="F6">
         <v>101</v>
       </c>
       <c r="G6">
-        <v>0.003502456936985254</v>
+        <v>0.004424691665917635</v>
       </c>
       <c r="H6">
-        <v>0.009594805538654327</v>
+        <v>0.01243496546521783</v>
       </c>
       <c r="I6">
-        <v>0.03757933899760246</v>
+        <v>0.08990712324157357</v>
       </c>
       <c r="J6">
-        <v>0.01916192984208465</v>
+        <v>0.0155273973941803</v>
       </c>
       <c r="K6">
-        <v>0.001510296016931534</v>
+        <v>0.001580499112606049</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>49</v>
       </c>
       <c r="D8">
-        <v>9.962962940335274E-05</v>
+        <v>0.0001522251404821873</v>
       </c>
       <c r="E8">
-        <v>0.02177666500210762</v>
+        <v>0.03237668331712484</v>
       </c>
       <c r="F8">
         <v>49</v>
       </c>
       <c r="G8">
-        <v>0.001902143005281687</v>
+        <v>0.002347433473914862</v>
       </c>
       <c r="H8">
-        <v>0.003244779538363218</v>
+        <v>0.004973569419234991</v>
       </c>
       <c r="I8">
-        <v>0.005407362710684538</v>
+        <v>0.01068706717342138</v>
       </c>
       <c r="J8">
-        <v>0.008893360383808613</v>
+        <v>0.01155747706070542</v>
       </c>
       <c r="K8">
-        <v>0.0006553675048053265</v>
+        <v>0.000841798260807991</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>49</v>
       </c>
       <c r="D9">
-        <v>0.001775330398231745</v>
+        <v>0.003154166042804718</v>
       </c>
       <c r="E9">
-        <v>0.02631490724161267</v>
+        <v>0.05864369217306376</v>
       </c>
       <c r="F9">
         <v>49</v>
       </c>
       <c r="G9">
-        <v>0.001913823187351227</v>
+        <v>0.003410936333239079</v>
       </c>
       <c r="H9">
-        <v>0.004937164019793272</v>
+        <v>0.009973959065973759</v>
       </c>
       <c r="I9">
-        <v>0.006027778144925833</v>
+        <v>0.01777164312079549</v>
       </c>
       <c r="J9">
-        <v>0.01116571296006441</v>
+        <v>0.02292770752683282</v>
       </c>
       <c r="K9">
-        <v>0.0006469446234405041</v>
+        <v>0.001790117006748915</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>49</v>
       </c>
       <c r="D10">
-        <v>0.00206108670681715</v>
+        <v>0.003072123508900404</v>
       </c>
       <c r="E10">
-        <v>0.02673909394070506</v>
+        <v>0.05521911988034844</v>
       </c>
       <c r="F10">
         <v>49</v>
       </c>
       <c r="G10">
-        <v>0.001903267577290535</v>
+        <v>0.003441018518060446</v>
       </c>
       <c r="H10">
-        <v>0.005253948736935854</v>
+        <v>0.009453070349991322</v>
       </c>
       <c r="I10">
-        <v>0.00601936224848032</v>
+        <v>0.0160662429407239</v>
       </c>
       <c r="J10">
-        <v>0.01124017080292106</v>
+        <v>0.02209822973236442</v>
       </c>
       <c r="K10">
-        <v>0.000638382975012064</v>
+        <v>0.001156759448349476</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>0.0001418008469045162</v>
+        <v>0.0001967228017747402</v>
       </c>
       <c r="E11">
-        <v>0.021594671998173</v>
+        <v>0.03038666723296046</v>
       </c>
       <c r="F11">
         <v>49</v>
       </c>
       <c r="G11">
-        <v>0.001743553206324577</v>
+        <v>0.002125932835042477</v>
       </c>
       <c r="H11">
-        <v>0.00328473374247551</v>
+        <v>0.004262574482709169</v>
       </c>
       <c r="I11">
-        <v>0.005831165239214897</v>
+        <v>0.009995473548769951</v>
       </c>
       <c r="J11">
-        <v>0.008495476096868515</v>
+        <v>0.01140075176954269</v>
       </c>
       <c r="K11">
-        <v>0.0006399853155016899</v>
+        <v>0.0007675196975469589</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>101</v>
       </c>
       <c r="D12">
-        <v>0.003027370199561119</v>
+        <v>0.003217901568859816</v>
       </c>
       <c r="E12">
-        <v>0.07508703880012035</v>
+        <v>0.1279248059727252</v>
       </c>
       <c r="F12">
         <v>101</v>
       </c>
       <c r="G12">
-        <v>0.003502456936985254</v>
+        <v>0.004424691665917635</v>
       </c>
       <c r="H12">
-        <v>0.009594805538654327</v>
+        <v>0.01243496546521783</v>
       </c>
       <c r="I12">
-        <v>0.03757933899760246</v>
+        <v>0.08990712324157357</v>
       </c>
       <c r="J12">
-        <v>0.01916192984208465</v>
+        <v>0.0155273973941803</v>
       </c>
       <c r="K12">
-        <v>0.001510296016931534</v>
+        <v>0.001580499112606049</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b11.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b11.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>97</v>
-      </c>
-      <c r="E2">
-        <v>97</v>
-      </c>
-      <c r="F2">
-        <v>97</v>
-      </c>
-      <c r="G2">
-        <v>97</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D2">
-        <v>0.0001522251404821873</v>
+        <v>0.004267001058906317</v>
       </c>
       <c r="E2">
-        <v>0.03237668331712484</v>
+        <v>0.05699556414037943</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G2">
-        <v>0.002347433473914862</v>
+        <v>0.005097823683172464</v>
       </c>
       <c r="H2">
-        <v>0.004973569419234991</v>
+        <v>0.0118528320454061</v>
       </c>
       <c r="I2">
-        <v>0.01068706717342138</v>
+        <v>0.01856553414836526</v>
       </c>
       <c r="J2">
-        <v>0.01155747706070542</v>
+        <v>0.01446734787896276</v>
       </c>
       <c r="K2">
-        <v>0.000841798260807991</v>
+        <v>0.002804113551974297</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>0.003154166042804718</v>
+        <v>1425</v>
       </c>
       <c r="E3">
-        <v>0.05864369217306376</v>
-      </c>
-      <c r="F3">
-        <v>49</v>
-      </c>
-      <c r="G3">
-        <v>0.003410936333239079</v>
-      </c>
-      <c r="H3">
-        <v>0.009973959065973759</v>
-      </c>
-      <c r="I3">
-        <v>0.01777164312079549</v>
-      </c>
-      <c r="J3">
-        <v>0.02292770752683282</v>
-      </c>
-      <c r="K3">
-        <v>0.001790117006748915</v>
+        <v>0.02095238771289587</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>0.003072123508900404</v>
+        <v>0.004267001058906317</v>
       </c>
       <c r="E4">
-        <v>0.05521911988034844</v>
+        <v>0.05699556414037943</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G4">
-        <v>0.003441018518060446</v>
+        <v>0.005097823683172464</v>
       </c>
       <c r="H4">
-        <v>0.009453070349991322</v>
+        <v>0.0118528320454061</v>
       </c>
       <c r="I4">
-        <v>0.0160662429407239</v>
+        <v>0.01856553414836526</v>
       </c>
       <c r="J4">
-        <v>0.02209822973236442</v>
+        <v>0.01446734787896276</v>
       </c>
       <c r="K4">
-        <v>0.001156759448349476</v>
+        <v>0.002804113551974297</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>0.0001967228017747402</v>
+        <v>1425</v>
       </c>
       <c r="E5">
-        <v>0.03038666723296046</v>
-      </c>
-      <c r="F5">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>0.002125932835042477</v>
-      </c>
-      <c r="H5">
-        <v>0.004262574482709169</v>
-      </c>
-      <c r="I5">
-        <v>0.009995473548769951</v>
-      </c>
-      <c r="J5">
-        <v>0.01140075176954269</v>
-      </c>
-      <c r="K5">
-        <v>0.0007675196975469589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>101</v>
-      </c>
-      <c r="D6">
-        <v>0.003217901568859816</v>
-      </c>
-      <c r="E6">
-        <v>0.1279248059727252</v>
-      </c>
-      <c r="F6">
-        <v>101</v>
-      </c>
-      <c r="G6">
-        <v>0.004424691665917635</v>
-      </c>
-      <c r="H6">
-        <v>0.01243496546521783</v>
-      </c>
-      <c r="I6">
-        <v>0.08990712324157357</v>
-      </c>
-      <c r="J6">
-        <v>0.0155273973941803</v>
-      </c>
-      <c r="K6">
-        <v>0.001580499112606049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1425</v>
-      </c>
-      <c r="E7">
-        <v>0.02095238771289587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>0.0001522251404821873</v>
-      </c>
-      <c r="E8">
-        <v>0.03237668331712484</v>
-      </c>
-      <c r="F8">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>0.002347433473914862</v>
-      </c>
-      <c r="H8">
-        <v>0.004973569419234991</v>
-      </c>
-      <c r="I8">
-        <v>0.01068706717342138</v>
-      </c>
-      <c r="J8">
-        <v>0.01155747706070542</v>
-      </c>
-      <c r="K8">
-        <v>0.000841798260807991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>0.003154166042804718</v>
-      </c>
-      <c r="E9">
-        <v>0.05864369217306376</v>
-      </c>
-      <c r="F9">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>0.003410936333239079</v>
-      </c>
-      <c r="H9">
-        <v>0.009973959065973759</v>
-      </c>
-      <c r="I9">
-        <v>0.01777164312079549</v>
-      </c>
-      <c r="J9">
-        <v>0.02292770752683282</v>
-      </c>
-      <c r="K9">
-        <v>0.001790117006748915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>49</v>
-      </c>
-      <c r="D10">
-        <v>0.003072123508900404</v>
-      </c>
-      <c r="E10">
-        <v>0.05521911988034844</v>
-      </c>
-      <c r="F10">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>0.003441018518060446</v>
-      </c>
-      <c r="H10">
-        <v>0.009453070349991322</v>
-      </c>
-      <c r="I10">
-        <v>0.0160662429407239</v>
-      </c>
-      <c r="J10">
-        <v>0.02209822973236442</v>
-      </c>
-      <c r="K10">
-        <v>0.001156759448349476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <v>0.0001967228017747402</v>
-      </c>
-      <c r="E11">
-        <v>0.03038666723296046</v>
-      </c>
-      <c r="F11">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>0.002125932835042477</v>
-      </c>
-      <c r="H11">
-        <v>0.004262574482709169</v>
-      </c>
-      <c r="I11">
-        <v>0.009995473548769951</v>
-      </c>
-      <c r="J11">
-        <v>0.01140075176954269</v>
-      </c>
-      <c r="K11">
-        <v>0.0007675196975469589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>101</v>
-      </c>
-      <c r="D12">
-        <v>0.003217901568859816</v>
-      </c>
-      <c r="E12">
-        <v>0.1279248059727252</v>
-      </c>
-      <c r="F12">
-        <v>101</v>
-      </c>
-      <c r="G12">
-        <v>0.004424691665917635</v>
-      </c>
-      <c r="H12">
-        <v>0.01243496546521783</v>
-      </c>
-      <c r="I12">
-        <v>0.08990712324157357</v>
-      </c>
-      <c r="J12">
-        <v>0.0155273973941803</v>
-      </c>
-      <c r="K12">
-        <v>0.001580499112606049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1425</v>
-      </c>
-      <c r="E13">
         <v>0.02095238771289587</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b11.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b11.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>97</v>
       </c>
       <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>97</v>
+      </c>
+      <c r="J2">
+        <v>97</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>0.004267001058906317</v>
+        <v>0.0002772090956568718</v>
       </c>
       <c r="E2">
-        <v>0.05699556414037943</v>
+        <v>0.02669198997318745</v>
       </c>
       <c r="F2">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>0.005097823683172464</v>
+        <v>0.002959785517305136</v>
       </c>
       <c r="H2">
-        <v>0.0118528320454061</v>
+        <v>0.004159507807344198</v>
       </c>
       <c r="I2">
-        <v>0.01856553414836526</v>
+        <v>0.007337115705013275</v>
       </c>
       <c r="J2">
-        <v>0.01446734787896276</v>
+        <v>0.008636882994323969</v>
       </c>
       <c r="K2">
-        <v>0.002804113551974297</v>
+        <v>0.001494353171437979</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1425</v>
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>0.004827899392694235</v>
       </c>
       <c r="E3">
-        <v>0.02095238771289587</v>
+        <v>0.06133332895115018</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>0.00490567134693265</v>
+      </c>
+      <c r="H3">
+        <v>0.01300314161926508</v>
+      </c>
+      <c r="I3">
+        <v>0.01967175444588065</v>
+      </c>
+      <c r="J3">
+        <v>0.01671054307371378</v>
+      </c>
+      <c r="K3">
+        <v>0.002859006635844707</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>0.004267001058906317</v>
+        <v>0.003213160205632448</v>
       </c>
       <c r="E4">
-        <v>0.05699556414037943</v>
+        <v>0.04500369261950254</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>0.005097823683172464</v>
+        <v>0.003938850481063128</v>
       </c>
       <c r="H4">
-        <v>0.0118528320454061</v>
+        <v>0.008798898197710514</v>
       </c>
       <c r="I4">
-        <v>0.01856553414836526</v>
+        <v>0.01121213985607028</v>
       </c>
       <c r="J4">
-        <v>0.01446734787896276</v>
+        <v>0.01606531348079443</v>
       </c>
       <c r="K4">
-        <v>0.002804113551974297</v>
+        <v>0.002071453724056482</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>0.0002690032124519348</v>
+      </c>
+      <c r="E5">
+        <v>0.03912871005013585</v>
+      </c>
+      <c r="F5">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>0.003976510837674141</v>
+      </c>
+      <c r="H5">
+        <v>0.006062083877623081</v>
+      </c>
+      <c r="I5">
+        <v>0.01166163478046656</v>
+      </c>
+      <c r="J5">
+        <v>0.01233454560860991</v>
+      </c>
+      <c r="K5">
+        <v>0.002100653480738401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>0.0008931648917496204</v>
+      </c>
+      <c r="E6">
+        <v>0.08464729133993387</v>
+      </c>
+      <c r="F6">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>0.005711413454264402</v>
+      </c>
+      <c r="H6">
+        <v>0.01039461186155677</v>
+      </c>
+      <c r="I6">
+        <v>0.05327501799911261</v>
+      </c>
+      <c r="J6">
+        <v>0.00694660097360611</v>
+      </c>
+      <c r="K6">
+        <v>0.003469774965196848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>426</v>
+      </c>
+      <c r="D7">
+        <v>0.01446025818586349</v>
+      </c>
+      <c r="E7">
+        <v>0.3700768169946969</v>
+      </c>
+      <c r="F7">
+        <v>426</v>
+      </c>
+      <c r="G7">
+        <v>0.01999580999836326</v>
+      </c>
+      <c r="H7">
+        <v>0.04844477074220777</v>
+      </c>
+      <c r="I7">
+        <v>0.2374390992335975</v>
+      </c>
+      <c r="J7">
+        <v>0.03325736708939075</v>
+      </c>
+      <c r="K7">
+        <v>0.01276585180312395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>0.006368126720190048</v>
+      </c>
+      <c r="E8">
+        <v>0.123960159253329</v>
+      </c>
+      <c r="F8">
+        <v>101</v>
+      </c>
+      <c r="G8">
+        <v>0.006995571777224541</v>
+      </c>
+      <c r="H8">
+        <v>0.01840878184884787</v>
+      </c>
+      <c r="I8">
+        <v>0.06907012825831771</v>
+      </c>
+      <c r="J8">
+        <v>0.01936796260997653</v>
+      </c>
+      <c r="K8">
+        <v>0.004242254421114922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>0.0007480126805603504</v>
+      </c>
+      <c r="E9">
+        <v>0.07325937738642097</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9">
+        <v>0.004655144177377224</v>
+      </c>
+      <c r="H9">
+        <v>0.009076365735381842</v>
+      </c>
+      <c r="I9">
+        <v>0.04684760700911283</v>
+      </c>
+      <c r="J9">
+        <v>0.00577112752944231</v>
+      </c>
+      <c r="K9">
+        <v>0.002982441335916519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>1425</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.02095238771289587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>0.0002772090956568718</v>
+      </c>
+      <c r="E11">
+        <v>0.02669198997318745</v>
+      </c>
+      <c r="F11">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>0.002959785517305136</v>
+      </c>
+      <c r="H11">
+        <v>0.004159507807344198</v>
+      </c>
+      <c r="I11">
+        <v>0.007337115705013275</v>
+      </c>
+      <c r="J11">
+        <v>0.008636882994323969</v>
+      </c>
+      <c r="K11">
+        <v>0.001494353171437979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <v>0.004827899392694235</v>
+      </c>
+      <c r="E12">
+        <v>0.06133332895115018</v>
+      </c>
+      <c r="F12">
+        <v>102</v>
+      </c>
+      <c r="G12">
+        <v>0.00490567134693265</v>
+      </c>
+      <c r="H12">
+        <v>0.01300314161926508</v>
+      </c>
+      <c r="I12">
+        <v>0.01967175444588065</v>
+      </c>
+      <c r="J12">
+        <v>0.01671054307371378</v>
+      </c>
+      <c r="K12">
+        <v>0.002859006635844707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>0.003213160205632448</v>
+      </c>
+      <c r="E13">
+        <v>0.04500369261950254</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>0.003938850481063128</v>
+      </c>
+      <c r="H13">
+        <v>0.008798898197710514</v>
+      </c>
+      <c r="I13">
+        <v>0.01121213985607028</v>
+      </c>
+      <c r="J13">
+        <v>0.01606531348079443</v>
+      </c>
+      <c r="K13">
+        <v>0.002071453724056482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>0.0002690032124519348</v>
+      </c>
+      <c r="E14">
+        <v>0.03912871005013585</v>
+      </c>
+      <c r="F14">
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>0.003976510837674141</v>
+      </c>
+      <c r="H14">
+        <v>0.006062083877623081</v>
+      </c>
+      <c r="I14">
+        <v>0.01166163478046656</v>
+      </c>
+      <c r="J14">
+        <v>0.01233454560860991</v>
+      </c>
+      <c r="K14">
+        <v>0.002100653480738401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>0.0008931648917496204</v>
+      </c>
+      <c r="E15">
+        <v>0.08464729133993387</v>
+      </c>
+      <c r="F15">
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <v>0.005711413454264402</v>
+      </c>
+      <c r="H15">
+        <v>0.01039461186155677</v>
+      </c>
+      <c r="I15">
+        <v>0.05327501799911261</v>
+      </c>
+      <c r="J15">
+        <v>0.00694660097360611</v>
+      </c>
+      <c r="K15">
+        <v>0.003469774965196848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>426</v>
+      </c>
+      <c r="D16">
+        <v>0.01446025818586349</v>
+      </c>
+      <c r="E16">
+        <v>0.3700768169946969</v>
+      </c>
+      <c r="F16">
+        <v>426</v>
+      </c>
+      <c r="G16">
+        <v>0.01999580999836326</v>
+      </c>
+      <c r="H16">
+        <v>0.04844477074220777</v>
+      </c>
+      <c r="I16">
+        <v>0.2374390992335975</v>
+      </c>
+      <c r="J16">
+        <v>0.03325736708939075</v>
+      </c>
+      <c r="K16">
+        <v>0.01276585180312395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>101</v>
+      </c>
+      <c r="D17">
+        <v>0.006368126720190048</v>
+      </c>
+      <c r="E17">
+        <v>0.123960159253329</v>
+      </c>
+      <c r="F17">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>0.006995571777224541</v>
+      </c>
+      <c r="H17">
+        <v>0.01840878184884787</v>
+      </c>
+      <c r="I17">
+        <v>0.06907012825831771</v>
+      </c>
+      <c r="J17">
+        <v>0.01936796260997653</v>
+      </c>
+      <c r="K17">
+        <v>0.004242254421114922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>101</v>
+      </c>
+      <c r="D18">
+        <v>0.0007480126805603504</v>
+      </c>
+      <c r="E18">
+        <v>0.07325937738642097</v>
+      </c>
+      <c r="F18">
+        <v>101</v>
+      </c>
+      <c r="G18">
+        <v>0.004655144177377224</v>
+      </c>
+      <c r="H18">
+        <v>0.009076365735381842</v>
+      </c>
+      <c r="I18">
+        <v>0.04684760700911283</v>
+      </c>
+      <c r="J18">
+        <v>0.00577112752944231</v>
+      </c>
+      <c r="K18">
+        <v>0.002982441335916519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>1425</v>
+      </c>
+      <c r="E19">
         <v>0.02095238771289587</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
